--- a/TestApp/bin/Debug/net6.0-windows/Resources/KÖLTSÉGFELHASZNÁLÁS_Syspell.xlsx
+++ b/TestApp/bin/Debug/net6.0-windows/Resources/KÖLTSÉGFELHASZNÁLÁS_Syspell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felhasználó\Munka\!PROJEKTEK\ERASMUS\ERASMUS_MIK\SYSPELL_KA226-SCH-092659\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F9D3CC2-D3F7-4B7D-B0DC-E7397759F6B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5DEF213-45CA-42F1-8160-1AD1A01BC9C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="149">
   <si>
     <t>résztvevő</t>
   </si>
@@ -225,9 +225,6 @@
   </si>
   <si>
     <t>különbsége</t>
-  </si>
-  <si>
-    <t>okmány</t>
   </si>
   <si>
     <t>Kinevezés</t>
@@ -2607,11 +2604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X125"/>
+  <dimension ref="A1:W125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2634,35 +2631,35 @@
     <col min="21" max="23" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="C1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="T1" t="s">
         <v>148</v>
       </c>
-      <c r="E1" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="S1" s="92" t="s">
-        <v>124</v>
-      </c>
-      <c r="X1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="175" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="175"/>
       <c r="C2" s="175"/>
@@ -2686,14 +2683,14 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="70" t="s">
         <v>23</v>
@@ -2707,10 +2704,10 @@
         <v>25</v>
       </c>
       <c r="J3" s="73" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="73" t="s">
         <v>61</v>
-      </c>
-      <c r="K3" s="73" t="s">
-        <v>62</v>
       </c>
       <c r="L3" s="73"/>
       <c r="M3" s="73"/>
@@ -2719,11 +2716,11 @@
         <v>26</v>
       </c>
       <c r="P3" s="124" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="116"/>
       <c r="R3" s="73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="S3" s="73"/>
       <c r="T3" s="98"/>
@@ -2731,7 +2728,7 @@
       <c r="V3" s="156"/>
       <c r="W3" s="156"/>
     </row>
-    <row r="4" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="75" t="s">
         <v>27</v>
       </c>
@@ -2742,7 +2739,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="67" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E4" s="67" t="s">
         <v>28</v>
@@ -2754,7 +2751,7 @@
         <v>29</v>
       </c>
       <c r="H4" s="125" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I4" s="77" t="s">
         <v>30</v>
@@ -2772,35 +2769,35 @@
         <v>31</v>
       </c>
       <c r="N4" s="79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O4" s="80" t="s">
         <v>32</v>
       </c>
       <c r="P4" s="125" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="117" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="R4" s="78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S4" s="78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="T4" s="99"/>
       <c r="U4" s="157" t="s">
+        <v>118</v>
+      </c>
+      <c r="V4" s="157" t="s">
         <v>119</v>
       </c>
-      <c r="V4" s="157" t="s">
+      <c r="W4" s="157" t="s">
         <v>120</v>
       </c>
-      <c r="W4" s="157" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="81" t="s">
         <v>33</v>
       </c>
@@ -2809,7 +2806,7 @@
         <v>34</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5" s="68" t="s">
         <v>35</v>
@@ -2819,7 +2816,7 @@
         <v>36</v>
       </c>
       <c r="H5" s="126" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I5" s="83" t="s">
         <v>37</v>
@@ -2833,35 +2830,33 @@
         <v>39</v>
       </c>
       <c r="N5" s="83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="O5" s="85" t="s">
         <v>40</v>
       </c>
       <c r="P5" s="126" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="118"/>
       <c r="R5" s="84" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="S5" s="84" t="s">
-        <v>110</v>
-      </c>
-      <c r="T5" s="100" t="s">
-        <v>41</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="T5" s="100"/>
       <c r="U5" s="158" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="V5" s="158" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="W5" s="158" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="1"/>
       <c r="C6" s="4"/>
@@ -2900,21 +2895,21 @@
       <c r="S6" s="93"/>
       <c r="T6" s="21"/>
     </row>
-    <row r="7" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>10</v>
@@ -2959,28 +2954,26 @@
         <v>44651</v>
       </c>
       <c r="R7" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S7" s="93"/>
-      <c r="T7" s="101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T7" s="101"/>
+    </row>
+    <row r="8" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>10</v>
@@ -3025,28 +3018,26 @@
         <v>44651</v>
       </c>
       <c r="R8" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S8" s="93"/>
-      <c r="T8" s="101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T8" s="101"/>
+    </row>
+    <row r="9" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>10</v>
@@ -3091,28 +3082,26 @@
         <v>44651</v>
       </c>
       <c r="R9" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S9" s="93"/>
-      <c r="T9" s="101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T9" s="101"/>
+    </row>
+    <row r="10" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>10</v>
@@ -3157,28 +3146,26 @@
         <v>44732</v>
       </c>
       <c r="R10" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S10" s="93"/>
-      <c r="T10" s="101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T10" s="101"/>
+    </row>
+    <row r="11" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>10</v>
@@ -3223,28 +3210,26 @@
         <v>44732</v>
       </c>
       <c r="R11" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S11" s="93"/>
-      <c r="T11" s="101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="101"/>
+    </row>
+    <row r="12" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>10</v>
@@ -3289,28 +3274,26 @@
         <v>44789</v>
       </c>
       <c r="R12" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S12" s="93"/>
-      <c r="T12" s="101">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T12" s="101"/>
+    </row>
+    <row r="13" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>10</v>
@@ -3355,28 +3338,26 @@
         <v>44825</v>
       </c>
       <c r="R13" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S13" s="93"/>
-      <c r="T13" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="T13" s="101"/>
+    </row>
+    <row r="14" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>10</v>
@@ -3421,14 +3402,12 @@
         <v>44825</v>
       </c>
       <c r="R14" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S14" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="T14" s="101">
-        <v>4</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T14" s="101"/>
       <c r="U14" s="155" t="e">
         <v>#N/A</v>
       </c>
@@ -3439,21 +3418,21 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>10</v>
@@ -3498,39 +3477,37 @@
         <v>44893</v>
       </c>
       <c r="R15" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S15" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="T15" s="101">
-        <v>4</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T15" s="101"/>
       <c r="U15" s="155" t="s">
+        <v>131</v>
+      </c>
+      <c r="V15" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="V15" s="155" t="s">
-        <v>133</v>
-      </c>
       <c r="W15" s="166" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" s="12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>10</v>
@@ -3575,16 +3552,14 @@
         <v>41284</v>
       </c>
       <c r="R16" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S16" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="T16" s="101">
-        <v>5</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T16" s="101"/>
       <c r="U16" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V16" s="12">
         <v>0</v>
@@ -3595,19 +3570,19 @@
     </row>
     <row r="17" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>10</v>
@@ -3652,14 +3627,12 @@
         <v>44953</v>
       </c>
       <c r="R17" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S17" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="T17" s="101">
-        <v>3</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T17" s="101"/>
       <c r="U17" s="12" t="str">
         <f>IF(VLOOKUP($S17,'Havi béradatok'!$B:$E,2,FALSE)=E17,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -3675,19 +3648,19 @@
     </row>
     <row r="18" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>10</v>
@@ -3732,14 +3705,12 @@
         <v>44978</v>
       </c>
       <c r="R18" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S18" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="T18" s="101">
-        <v>4</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="T18" s="101"/>
       <c r="U18" s="12" t="str">
         <f>IF(VLOOKUP($S18,'Havi béradatok'!$B:$E,2,FALSE)=E18,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -3755,19 +3726,19 @@
     </row>
     <row r="19" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>14</v>
@@ -3812,28 +3783,28 @@
         <v>44978</v>
       </c>
       <c r="R19" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S19" s="93" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T19" s="101"/>
     </row>
     <row r="20" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>14</v>
@@ -3878,28 +3849,28 @@
         <v>45034</v>
       </c>
       <c r="R20" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S20" s="93" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T20" s="101"/>
     </row>
     <row r="21" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>14</v>
@@ -3944,28 +3915,28 @@
         <v>45034</v>
       </c>
       <c r="R21" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S21" s="93" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="T21" s="101"/>
     </row>
     <row r="22" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>10</v>
@@ -4009,28 +3980,26 @@
         <v>44734</v>
       </c>
       <c r="R22" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S22" s="93"/>
-      <c r="T22" s="101">
-        <v>5</v>
-      </c>
+      <c r="T22" s="101"/>
     </row>
     <row r="23" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>10</v>
@@ -4075,28 +4044,26 @@
         <v>44734</v>
       </c>
       <c r="R23" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S23" s="93"/>
-      <c r="T23" s="101">
-        <v>5</v>
-      </c>
+      <c r="T23" s="101"/>
     </row>
     <row r="24" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>10</v>
@@ -4140,28 +4107,26 @@
         <v>44734</v>
       </c>
       <c r="R24" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S24" s="93"/>
-      <c r="T24" s="101">
-        <v>5</v>
-      </c>
+      <c r="T24" s="101"/>
     </row>
     <row r="25" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>10</v>
@@ -4205,28 +4170,26 @@
         <v>44832</v>
       </c>
       <c r="R25" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S25" s="93"/>
-      <c r="T25" s="101">
-        <v>1</v>
-      </c>
+      <c r="T25" s="101"/>
     </row>
     <row r="26" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>10</v>
@@ -4270,14 +4233,12 @@
         <v>44875</v>
       </c>
       <c r="R26" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S26" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="T26" s="101">
-        <v>4</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="T26" s="101"/>
       <c r="U26" s="155" t="e">
         <v>#N/A</v>
       </c>
@@ -4290,19 +4251,19 @@
     </row>
     <row r="27" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>10</v>
@@ -4346,39 +4307,37 @@
         <v>44875</v>
       </c>
       <c r="R27" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S27" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="T27" s="101">
-        <v>4</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="T27" s="101"/>
       <c r="U27" s="155" t="s">
+        <v>131</v>
+      </c>
+      <c r="V27" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="V27" s="155" t="s">
-        <v>133</v>
-      </c>
       <c r="W27" s="155" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>10</v>
@@ -4423,16 +4382,14 @@
         <v>44944</v>
       </c>
       <c r="R28" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S28" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="T28" s="101">
-        <v>5</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="T28" s="101"/>
       <c r="U28" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V28" s="12">
         <v>0</v>
@@ -4443,19 +4400,19 @@
     </row>
     <row r="29" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>10</v>
@@ -4500,14 +4457,12 @@
         <v>44944</v>
       </c>
       <c r="R29" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S29" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="T29" s="101">
-        <v>3</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="T29" s="101"/>
       <c r="U29" s="12" t="str">
         <f>IF(VLOOKUP($S29,'Havi béradatok'!$B:$E,2,FALSE)=E29,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -4523,19 +4478,19 @@
     </row>
     <row r="30" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>10</v>
@@ -4580,14 +4535,12 @@
         <v>44980</v>
       </c>
       <c r="R30" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S30" s="93" t="s">
-        <v>112</v>
-      </c>
-      <c r="T30" s="101">
-        <v>4</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="T30" s="101"/>
       <c r="U30" s="12" t="str">
         <f>IF(VLOOKUP($S30,'Havi béradatok'!$B:$E,2,FALSE)=E30,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -4603,19 +4556,19 @@
     </row>
     <row r="31" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>14</v>
@@ -4660,10 +4613,10 @@
         <v>45002</v>
       </c>
       <c r="R31" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S31" s="93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T31" s="101"/>
       <c r="U31" s="155"/>
@@ -4672,19 +4625,19 @@
     </row>
     <row r="32" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>14</v>
@@ -4729,10 +4682,10 @@
         <v>45002</v>
       </c>
       <c r="R32" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S32" s="93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T32" s="101"/>
       <c r="U32" s="155"/>
@@ -4741,19 +4694,19 @@
     </row>
     <row r="33" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>14</v>
@@ -4798,10 +4751,10 @@
         <v>45002</v>
       </c>
       <c r="R33" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S33" s="93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T33" s="101"/>
       <c r="U33" s="155"/>
@@ -4810,19 +4763,19 @@
     </row>
     <row r="34" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>10</v>
@@ -4866,28 +4819,26 @@
         <v>44734</v>
       </c>
       <c r="R34" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S34" s="93"/>
-      <c r="T34" s="101">
-        <v>5</v>
-      </c>
+      <c r="T34" s="101"/>
     </row>
     <row r="35" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>10</v>
@@ -4932,28 +4883,26 @@
         <v>44734</v>
       </c>
       <c r="R35" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S35" s="93"/>
-      <c r="T35" s="101">
-        <v>5</v>
-      </c>
+      <c r="T35" s="101"/>
     </row>
     <row r="36" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>10</v>
@@ -4997,28 +4946,26 @@
         <v>44734</v>
       </c>
       <c r="R36" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S36" s="93"/>
-      <c r="T36" s="101">
-        <v>5</v>
-      </c>
+      <c r="T36" s="101"/>
     </row>
     <row r="37" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>10</v>
@@ -5062,28 +5009,26 @@
         <v>44830</v>
       </c>
       <c r="R37" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S37" s="93"/>
-      <c r="T37" s="101">
-        <v>1</v>
-      </c>
+      <c r="T37" s="101"/>
     </row>
     <row r="38" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>10</v>
@@ -5127,14 +5072,12 @@
         <v>44860</v>
       </c>
       <c r="R38" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S38" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="T38" s="101">
-        <v>4</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="T38" s="101"/>
       <c r="U38" s="155" t="e">
         <v>#N/A</v>
       </c>
@@ -5147,19 +5090,19 @@
     </row>
     <row r="39" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>10</v>
@@ -5203,39 +5146,37 @@
         <v>44860</v>
       </c>
       <c r="R39" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S39" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="T39" s="101">
-        <v>4</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="T39" s="101"/>
       <c r="U39" s="155" t="s">
+        <v>131</v>
+      </c>
+      <c r="V39" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="V39" s="155" t="s">
-        <v>133</v>
-      </c>
       <c r="W39" s="155" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="40" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>10</v>
@@ -5280,16 +5221,14 @@
         <v>44938</v>
       </c>
       <c r="R40" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S40" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="T40" s="101">
-        <v>5</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="T40" s="101"/>
       <c r="U40" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V40" s="12">
         <v>0</v>
@@ -5300,19 +5239,19 @@
     </row>
     <row r="41" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>10</v>
@@ -5357,14 +5296,12 @@
         <v>44938</v>
       </c>
       <c r="R41" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S41" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="T41" s="101">
-        <v>3</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="T41" s="101"/>
       <c r="U41" s="12" t="str">
         <f>IF(VLOOKUP($S41,'Havi béradatok'!$B:$E,2,FALSE)=E41,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -5380,19 +5317,19 @@
     </row>
     <row r="42" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>10</v>
@@ -5437,14 +5374,12 @@
         <v>44977</v>
       </c>
       <c r="R42" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S42" s="93" t="s">
-        <v>113</v>
-      </c>
-      <c r="T42" s="101">
-        <v>4</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="T42" s="101"/>
       <c r="U42" s="12" t="str">
         <f>IF(VLOOKUP($S42,'Havi béradatok'!$B:$E,2,FALSE)=E42,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -5460,19 +5395,19 @@
     </row>
     <row r="43" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>14</v>
@@ -5517,28 +5452,28 @@
         <v>44977</v>
       </c>
       <c r="R43" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S43" s="93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T43" s="101"/>
     </row>
     <row r="44" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>14</v>
@@ -5583,28 +5518,28 @@
         <v>44977</v>
       </c>
       <c r="R44" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S44" s="93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T44" s="101"/>
     </row>
     <row r="45" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>14</v>
@@ -5649,28 +5584,28 @@
         <v>44977</v>
       </c>
       <c r="R45" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S45" s="93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="T45" s="101"/>
     </row>
     <row r="46" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>10</v>
@@ -5714,28 +5649,26 @@
         <v>44832</v>
       </c>
       <c r="R46" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S46" s="93"/>
-      <c r="T46" s="101">
-        <v>1</v>
-      </c>
+      <c r="T46" s="101"/>
     </row>
     <row r="47" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>10</v>
@@ -5779,14 +5712,12 @@
         <v>44875</v>
       </c>
       <c r="R47" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S47" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="T47" s="101">
-        <v>4</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="T47" s="101"/>
       <c r="U47" s="155" t="e">
         <v>#N/A</v>
       </c>
@@ -5799,19 +5730,19 @@
     </row>
     <row r="48" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>10</v>
@@ -5855,39 +5786,37 @@
         <v>44875</v>
       </c>
       <c r="R48" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S48" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="T48" s="101">
-        <v>4</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="T48" s="101"/>
       <c r="U48" s="155" t="s">
+        <v>131</v>
+      </c>
+      <c r="V48" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="V48" s="155" t="s">
-        <v>133</v>
-      </c>
       <c r="W48" s="155" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="49" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>10</v>
@@ -5932,16 +5861,14 @@
         <v>44944</v>
       </c>
       <c r="R49" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S49" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="T49" s="101">
-        <v>5</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="T49" s="101"/>
       <c r="U49" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V49" s="12">
         <v>0</v>
@@ -5952,19 +5879,19 @@
     </row>
     <row r="50" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F50" s="3" t="s">
         <v>10</v>
@@ -6009,14 +5936,12 @@
         <v>44944</v>
       </c>
       <c r="R50" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S50" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="T50" s="101">
-        <v>3</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="T50" s="101"/>
       <c r="U50" s="12" t="str">
         <f>IF(VLOOKUP($S50,'Havi béradatok'!$B:$E,2,FALSE)=E50,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -6032,19 +5957,19 @@
     </row>
     <row r="51" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F51" s="3" t="s">
         <v>10</v>
@@ -6089,14 +6014,12 @@
         <v>44980</v>
       </c>
       <c r="R51" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S51" s="93" t="s">
-        <v>114</v>
-      </c>
-      <c r="T51" s="101">
-        <v>4</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="T51" s="101"/>
       <c r="U51" s="12" t="str">
         <f>IF(VLOOKUP($S51,'Havi béradatok'!$B:$E,2,FALSE)=E51,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -6112,19 +6035,19 @@
     </row>
     <row r="52" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>14</v>
@@ -6169,10 +6092,10 @@
         <v>45002</v>
       </c>
       <c r="R52" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S52" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T52" s="101"/>
       <c r="U52" s="155"/>
@@ -6181,19 +6104,19 @@
     </row>
     <row r="53" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>14</v>
@@ -6238,10 +6161,10 @@
         <v>45002</v>
       </c>
       <c r="R53" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S53" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T53" s="101"/>
       <c r="U53" s="155"/>
@@ -6250,19 +6173,19 @@
     </row>
     <row r="54" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>14</v>
@@ -6307,10 +6230,10 @@
         <v>45002</v>
       </c>
       <c r="R54" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S54" s="93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="T54" s="101"/>
       <c r="U54" s="155"/>
@@ -6319,19 +6242,19 @@
     </row>
     <row r="55" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E55" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>10</v>
@@ -6376,28 +6299,26 @@
         <v>44651</v>
       </c>
       <c r="R55" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S55" s="93"/>
-      <c r="T55" s="101">
-        <v>5</v>
-      </c>
+      <c r="T55" s="101"/>
     </row>
     <row r="56" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>10</v>
@@ -6442,28 +6363,26 @@
         <v>44651</v>
       </c>
       <c r="R56" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S56" s="93"/>
-      <c r="T56" s="101">
-        <v>5</v>
-      </c>
+      <c r="T56" s="101"/>
     </row>
     <row r="57" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>10</v>
@@ -6508,28 +6427,26 @@
         <v>44651</v>
       </c>
       <c r="R57" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S57" s="93"/>
-      <c r="T57" s="101">
-        <v>5</v>
-      </c>
+      <c r="T57" s="101"/>
     </row>
     <row r="58" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>10</v>
@@ -6574,28 +6491,26 @@
         <v>44726</v>
       </c>
       <c r="R58" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S58" s="93"/>
-      <c r="T58" s="101">
-        <v>5</v>
-      </c>
+      <c r="T58" s="101"/>
     </row>
     <row r="59" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>10</v>
@@ -6640,28 +6555,26 @@
         <v>44726</v>
       </c>
       <c r="R59" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S59" s="93"/>
-      <c r="T59" s="101">
-        <v>5</v>
-      </c>
+      <c r="T59" s="101"/>
     </row>
     <row r="60" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>10</v>
@@ -6706,28 +6619,26 @@
         <v>44796</v>
       </c>
       <c r="R60" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S60" s="93"/>
-      <c r="T60" s="101">
-        <v>5</v>
-      </c>
+      <c r="T60" s="101"/>
     </row>
     <row r="61" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>10</v>
@@ -6772,28 +6683,26 @@
         <v>44796</v>
       </c>
       <c r="R61" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S61" s="93"/>
-      <c r="T61" s="101">
-        <v>1</v>
-      </c>
+      <c r="T61" s="101"/>
     </row>
     <row r="62" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>10</v>
@@ -6838,14 +6747,12 @@
         <v>44796</v>
       </c>
       <c r="R62" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S62" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="T62" s="101">
-        <v>4</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="T62" s="101"/>
       <c r="U62" s="155" t="e">
         <v>#N/A</v>
       </c>
@@ -6858,19 +6765,19 @@
     </row>
     <row r="63" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>10</v>
@@ -6915,39 +6822,37 @@
         <v>44796</v>
       </c>
       <c r="R63" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S63" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="T63" s="101">
-        <v>4</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="T63" s="101"/>
       <c r="U63" s="155" t="s">
+        <v>131</v>
+      </c>
+      <c r="V63" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="V63" s="155" t="s">
-        <v>133</v>
-      </c>
       <c r="W63" s="155" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>10</v>
@@ -6992,16 +6897,14 @@
         <v>44796</v>
       </c>
       <c r="R64" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S64" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="T64" s="101">
-        <v>5</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="T64" s="101"/>
       <c r="U64" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V64" s="12">
         <v>0</v>
@@ -7012,19 +6915,19 @@
     </row>
     <row r="65" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>10</v>
@@ -7069,14 +6972,12 @@
         <v>44796</v>
       </c>
       <c r="R65" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S65" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="T65" s="101">
-        <v>3</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="T65" s="101"/>
       <c r="U65" s="12" t="str">
         <f>IF(VLOOKUP($S65,'Havi béradatok'!$B:$E,2,FALSE)=E65,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -7092,19 +6993,19 @@
     </row>
     <row r="66" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>10</v>
@@ -7149,14 +7050,12 @@
         <v>44980</v>
       </c>
       <c r="R66" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S66" s="93" t="s">
-        <v>115</v>
-      </c>
-      <c r="T66" s="101">
-        <v>4</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="T66" s="101"/>
       <c r="U66" s="12" t="str">
         <f>IF(VLOOKUP($S66,'Havi béradatok'!$B:$E,2,FALSE)=E66,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -7172,19 +7071,19 @@
     </row>
     <row r="67" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E67" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>14</v>
@@ -7229,28 +7128,28 @@
         <v>45002</v>
       </c>
       <c r="R67" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S67" s="93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T67" s="101"/>
     </row>
     <row r="68" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E68" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F68" s="3" t="s">
         <v>14</v>
@@ -7295,28 +7194,28 @@
         <v>45002</v>
       </c>
       <c r="R68" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S68" s="93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T68" s="101"/>
     </row>
     <row r="69" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E69" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F69" s="3" t="s">
         <v>14</v>
@@ -7361,28 +7260,28 @@
         <v>45002</v>
       </c>
       <c r="R69" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S69" s="93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="T69" s="101"/>
     </row>
     <row r="70" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F70" s="3" t="s">
         <v>10</v>
@@ -7426,28 +7325,26 @@
         <v>44735</v>
       </c>
       <c r="R70" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S70" s="93"/>
-      <c r="T70" s="101">
-        <v>5</v>
-      </c>
+      <c r="T70" s="101"/>
     </row>
     <row r="71" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F71" s="3" t="s">
         <v>10</v>
@@ -7492,28 +7389,26 @@
         <v>44735</v>
       </c>
       <c r="R71" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S71" s="93"/>
-      <c r="T71" s="101">
-        <v>5</v>
-      </c>
+      <c r="T71" s="101"/>
     </row>
     <row r="72" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>10</v>
@@ -7557,28 +7452,26 @@
         <v>44735</v>
       </c>
       <c r="R72" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S72" s="93"/>
-      <c r="T72" s="101">
-        <v>5</v>
-      </c>
+      <c r="T72" s="101"/>
     </row>
     <row r="73" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F73" s="3" t="s">
         <v>10</v>
@@ -7622,28 +7515,26 @@
         <v>44830</v>
       </c>
       <c r="R73" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S73" s="93"/>
-      <c r="T73" s="101">
-        <v>1</v>
-      </c>
+      <c r="T73" s="101"/>
     </row>
     <row r="74" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F74" s="3" t="s">
         <v>10</v>
@@ -7687,14 +7578,12 @@
         <v>44830</v>
       </c>
       <c r="R74" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S74" s="93" t="s">
-        <v>116</v>
-      </c>
-      <c r="T74" s="101">
-        <v>4</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="T74" s="101"/>
       <c r="U74" s="155" t="e">
         <v>#N/A</v>
       </c>
@@ -7707,19 +7596,19 @@
     </row>
     <row r="75" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F75" s="3" t="s">
         <v>10</v>
@@ -7763,14 +7652,12 @@
         <v>44830</v>
       </c>
       <c r="R75" s="93" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S75" s="93" t="s">
-        <v>116</v>
-      </c>
-      <c r="T75" s="101">
-        <v>4</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="T75" s="101"/>
       <c r="U75" s="155" t="e">
         <v>#N/A</v>
       </c>
@@ -8192,7 +8079,7 @@
     </row>
     <row r="91" spans="1:20" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B91" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F91" s="23" t="s">
         <v>10</v>
@@ -8207,7 +8094,7 @@
     </row>
     <row r="92" spans="1:20" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B92" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F92" s="23" t="s">
         <v>14</v>
@@ -8222,7 +8109,7 @@
     </row>
     <row r="93" spans="1:20" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B93" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K93" s="28"/>
       <c r="L93" s="31"/>
@@ -8234,7 +8121,7 @@
     </row>
     <row r="94" spans="1:20" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B94" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K94" s="28"/>
       <c r="L94" s="31"/>
@@ -8246,7 +8133,7 @@
     </row>
     <row r="95" spans="1:20" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B95" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K95" s="28"/>
       <c r="L95" s="31"/>
@@ -8549,7 +8436,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B1" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="138"/>
       <c r="F1" s="24"/>
@@ -8560,7 +8447,7 @@
     </row>
     <row r="2" spans="1:9" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B2" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="138"/>
       <c r="F2" s="24"/>
@@ -8571,7 +8458,7 @@
     </row>
     <row r="3" spans="1:9" s="23" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="138"/>
       <c r="F3" s="24"/>
@@ -8598,7 +8485,7 @@
     </row>
     <row r="7" spans="1:9" collapsed="1" x14ac:dyDescent="0.25">
       <c r="B7" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8621,7 +8508,7 @@
         <v>5</v>
       </c>
       <c r="G8" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" s="47" t="s">
         <v>13</v>
@@ -8643,16 +8530,16 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="139">
         <v>5100005397</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F10" s="42">
         <v>29830</v>
@@ -8665,22 +8552,22 @@
         <v>10</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
       <c r="B11" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="137">
         <v>5100008674</v>
       </c>
       <c r="D11" s="38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F11" s="42">
         <v>34310</v>
@@ -8699,16 +8586,16 @@
     <row r="12" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="37"/>
       <c r="B12" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="137">
         <v>5100008915</v>
       </c>
       <c r="D12" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="38" t="s">
         <v>102</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>103</v>
       </c>
       <c r="F12" s="42">
         <v>49850</v>
@@ -8727,16 +8614,16 @@
     <row r="13" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="37"/>
       <c r="B13" s="38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="137" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="E13" s="38" t="s">
         <v>106</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>107</v>
       </c>
       <c r="F13" s="42">
         <v>16470</v>
@@ -8755,16 +8642,16 @@
     <row r="14" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C14" s="137" t="s">
+        <v>133</v>
+      </c>
+      <c r="D14" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="38" t="s">
         <v>134</v>
-      </c>
-      <c r="D14" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>135</v>
       </c>
       <c r="F14" s="42">
         <v>57545</v>
@@ -8777,22 +8664,22 @@
         <v>14</v>
       </c>
       <c r="I14" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="37"/>
       <c r="B15" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E15" s="38" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F15" s="42">
         <v>5237</v>
@@ -8805,22 +8692,22 @@
         <v>14</v>
       </c>
       <c r="I15" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
       <c r="B16" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="137">
         <v>5100013281</v>
       </c>
       <c r="D16" s="38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="38" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F16" s="42">
         <v>97633</v>
@@ -8833,22 +8720,22 @@
         <v>10</v>
       </c>
       <c r="I16" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C17" s="137">
         <v>5100012943</v>
       </c>
       <c r="D17" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E17" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F17" s="42">
         <v>3719</v>
@@ -8861,22 +8748,22 @@
         <v>10</v>
       </c>
       <c r="I17" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="37"/>
       <c r="B18" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C18" s="137">
         <v>5100012945</v>
       </c>
       <c r="D18" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F18" s="42">
         <v>1908</v>
@@ -8889,22 +8776,22 @@
         <v>10</v>
       </c>
       <c r="I18" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="37"/>
       <c r="B19" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C19" s="137">
         <v>5100012947</v>
       </c>
       <c r="D19" s="38" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E19" s="38" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F19" s="42">
         <v>2596</v>
@@ -8917,22 +8804,22 @@
         <v>10</v>
       </c>
       <c r="I19" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="37"/>
       <c r="B20" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="137">
         <v>5100012949</v>
       </c>
       <c r="D20" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" s="38" t="s">
         <v>141</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>142</v>
       </c>
       <c r="F20" s="42">
         <v>72222</v>
@@ -8945,22 +8832,22 @@
         <v>10</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
       <c r="B21" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="137">
         <v>5100012950</v>
       </c>
       <c r="D21" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E21" s="38" t="s">
         <v>141</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>142</v>
       </c>
       <c r="F21" s="42">
         <v>51580</v>
@@ -8973,22 +8860,22 @@
         <v>10</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="37"/>
       <c r="B22" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="137">
         <v>5100012951</v>
       </c>
       <c r="D22" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="38" t="s">
         <v>141</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>142</v>
       </c>
       <c r="F22" s="42">
         <v>39374</v>
@@ -9001,22 +8888,22 @@
         <v>10</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="41" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="37"/>
       <c r="B23" s="38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="137">
         <v>5100012907</v>
       </c>
       <c r="D23" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" s="38" t="s">
         <v>138</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>139</v>
       </c>
       <c r="F23" s="42">
         <v>985</v>
@@ -9029,7 +8916,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="41" customFormat="1" x14ac:dyDescent="0.25">
@@ -9183,12 +9070,12 @@
         <v>44985</v>
       </c>
       <c r="D1" s="169" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -9196,19 +9083,19 @@
         <v>21</v>
       </c>
       <c r="B3" s="111" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="110" t="s">
+        <v>52</v>
+      </c>
+      <c r="D3" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="110" t="s">
+      <c r="E3" s="112" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="112" t="s">
-        <v>55</v>
-      </c>
       <c r="H3" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I3" s="86">
         <f>SUMIFS(Bérköltség!$L$6:$L$88,Bérköltség!$F$6:$F$88,"Tény")+SUMIFS(Bérköltség!$M$6:$M$88,Bérköltség!$F$6:$F$88,"Tény")+SUMIFS(Dologi_Felhalm.!$F$9:$F$30,Dologi_Felhalm.!H9:H30,"Tény")</f>
@@ -9217,7 +9104,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="60">
         <v>6000</v>
@@ -9235,7 +9122,7 @@
         <v>261.52447552447609</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I4" s="86">
         <f>SUMIFS(Bérköltség!$L$6:$L$88,Bérköltség!$F$6:$F$88,"Köt. váll.")+SUMIFS(Bérköltség!$M$6:$M$88,Bérköltség!$F$6:$F$88,"Köt. váll.")+SUMIFS(Dologi_Felhalm.!$F$9:$F$30,Dologi_Felhalm.!H9:H30,"Köt. váll.")</f>
@@ -9244,7 +9131,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="60">
         <v>518</v>
@@ -9264,7 +9151,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B6" s="60">
         <v>15290</v>
@@ -9284,7 +9171,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7" s="60">
         <v>370</v>
@@ -9304,7 +9191,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B8" s="60">
         <v>2200</v>
@@ -9324,7 +9211,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B9" s="60">
         <v>1725</v>
@@ -9344,7 +9231,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" s="60">
         <v>2100</v>
@@ -9399,7 +9286,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="132" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B14" s="64">
         <f>B13*B18</f>
@@ -9411,7 +9298,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="154">
         <v>11281.2</v>
@@ -9422,7 +9309,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="63" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B17" s="56">
         <v>44837</v>
@@ -9430,16 +9317,16 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B18">
         <v>429</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -9452,7 +9339,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="109">
         <f>Bérköltség!L89+Bérköltség!M89+Dologi_Felhalm.!F31</f>
@@ -9461,7 +9348,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="106">
         <f>Bérköltség!N89+Dologi_Felhalm.!G31</f>
@@ -9474,13 +9361,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B26" s="108"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="107" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="108">
         <f>B13-B24</f>
@@ -9505,82 +9392,82 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -9603,30 +9490,30 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="160" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="160" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="160" t="s">
+      <c r="C1" s="160" t="s">
         <v>124</v>
       </c>
-      <c r="C1" s="160" t="s">
-        <v>125</v>
-      </c>
       <c r="D1" s="160" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="160" t="s">
         <v>120</v>
-      </c>
-      <c r="E1" s="160" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="172" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" s="161" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C2" s="162" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D2" s="163">
         <v>763200</v>
@@ -9637,13 +9524,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="172" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="161" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="162" t="s">
         <v>96</v>
-      </c>
-      <c r="B3" s="161" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" s="162" t="s">
-        <v>97</v>
       </c>
       <c r="D3" s="163">
         <v>700000</v>
@@ -9654,13 +9541,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="172" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="161" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C4" s="162" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D4" s="163">
         <v>1100001</v>
@@ -9671,13 +9558,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="172" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="161" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="162" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="163">
         <v>904200</v>
@@ -9688,13 +9575,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="172" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="161" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="162" t="s">
         <v>89</v>
-      </c>
-      <c r="B6" s="161" t="s">
-        <v>115</v>
-      </c>
-      <c r="C6" s="162" t="s">
-        <v>90</v>
       </c>
       <c r="D6" s="163">
         <v>509500</v>
